--- a/xlsx-template/student.xlsx
+++ b/xlsx-template/student.xlsx
@@ -84,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -121,12 +128,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +425,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,67 +440,67 @@
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
